--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>2464.119358070528</v>
+        <v>1949.786989421895</v>
       </c>
       <c r="R2">
-        <v>9856.47743228211</v>
+        <v>7799.147957687581</v>
       </c>
       <c r="S2">
-        <v>0.02398874832641264</v>
+        <v>0.03264386828730006</v>
       </c>
       <c r="T2">
-        <v>0.01504476744135963</v>
+        <v>0.02055972358412201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>1778.188924776447</v>
+        <v>1148.888757690844</v>
       </c>
       <c r="R3">
-        <v>10669.13354865868</v>
+        <v>6893.332546145063</v>
       </c>
       <c r="S3">
-        <v>0.01731106346515524</v>
+        <v>0.01923501053514546</v>
       </c>
       <c r="T3">
-        <v>0.01628519256937144</v>
+        <v>0.0181718583223539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H4">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I4">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J4">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1265.647625498112</v>
+        <v>750.8031497184371</v>
       </c>
       <c r="R4">
-        <v>7593.885752988671</v>
+        <v>4504.818898310623</v>
       </c>
       <c r="S4">
-        <v>0.0123213602695649</v>
+        <v>0.01257015215614171</v>
       </c>
       <c r="T4">
-        <v>0.01159118416441363</v>
+        <v>0.01187537816288028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H5">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I5">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J5">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>2094.764737932032</v>
+        <v>1664.258352772298</v>
       </c>
       <c r="R5">
-        <v>8379.058951728128</v>
+        <v>6657.033411089193</v>
       </c>
       <c r="S5">
-        <v>0.02039299920140353</v>
+        <v>0.02786346957830807</v>
       </c>
       <c r="T5">
-        <v>0.01278965981226874</v>
+        <v>0.01754893836670322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H6">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I6">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J6">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>1822.641369094144</v>
+        <v>578.9919945217811</v>
       </c>
       <c r="R6">
-        <v>10935.84821456486</v>
+        <v>3473.951967130687</v>
       </c>
       <c r="S6">
-        <v>0.01774381786714414</v>
+        <v>0.009693642695899883</v>
       </c>
       <c r="T6">
-        <v>0.01669230151364965</v>
+        <v>0.00915785834250292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H7">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I7">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J7">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1192.338853805227</v>
+        <v>834.4757859629802</v>
       </c>
       <c r="R7">
-        <v>7154.033122831361</v>
+        <v>5006.854715777881</v>
       </c>
       <c r="S7">
-        <v>0.01160768312218999</v>
+        <v>0.01397102236998383</v>
       </c>
       <c r="T7">
-        <v>0.01091980023697588</v>
+        <v>0.01319881986349342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
         <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J8">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>6651.081420861681</v>
+        <v>8145.497471194173</v>
       </c>
       <c r="R8">
-        <v>39906.48852517008</v>
+        <v>48872.98482716504</v>
       </c>
       <c r="S8">
-        <v>0.06474975239367574</v>
+        <v>0.136374151651836</v>
       </c>
       <c r="T8">
-        <v>0.06091261745256807</v>
+        <v>0.1288365170437703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
         <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J9">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>4799.637355888233</v>
@@ -1013,10 +1013,10 @@
         <v>43196.73620299411</v>
       </c>
       <c r="S9">
-        <v>0.04672553389564988</v>
+        <v>0.0803568443745105</v>
       </c>
       <c r="T9">
-        <v>0.06593479819385493</v>
+        <v>0.1138730744548046</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
         <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J10">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>3416.200347494392</v>
+        <v>3136.581170443353</v>
       </c>
       <c r="R10">
-        <v>30745.80312744953</v>
+        <v>28229.23053399018</v>
       </c>
       <c r="S10">
-        <v>0.03325746786584873</v>
+        <v>0.05251350181115762</v>
       </c>
       <c r="T10">
-        <v>0.04692989569836681</v>
+        <v>0.07441648496990141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
         <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J11">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>5654.129855318945</v>
+        <v>6952.663176781122</v>
       </c>
       <c r="R11">
-        <v>33924.77913191367</v>
+        <v>41715.97906068674</v>
       </c>
       <c r="S11">
-        <v>0.05504420784645285</v>
+        <v>0.1164033928937527</v>
       </c>
       <c r="T11">
-        <v>0.05178223316044855</v>
+        <v>0.1099695765719307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
         <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J12">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>4919.62213890817</v>
+        <v>2418.816954264921</v>
       </c>
       <c r="R12">
-        <v>44276.59925017353</v>
+        <v>21769.35258838429</v>
       </c>
       <c r="S12">
-        <v>0.04789361236288706</v>
+        <v>0.04049649653756464</v>
       </c>
       <c r="T12">
-        <v>0.06758308365130673</v>
+        <v>0.05738727797583359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
         <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J13">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>3218.327380101071</v>
+        <v>3486.134865608872</v>
       </c>
       <c r="R13">
-        <v>28964.94642090964</v>
+        <v>31375.21379047985</v>
       </c>
       <c r="S13">
-        <v>0.0313311306533869</v>
+        <v>0.05836582560151458</v>
       </c>
       <c r="T13">
-        <v>0.04421162487794909</v>
+        <v>0.08270976860865431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H14">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I14">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J14">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>824.0453604979512</v>
+        <v>388.5253912712278</v>
       </c>
       <c r="R14">
-        <v>4944.272162987707</v>
+        <v>2331.152347627367</v>
       </c>
       <c r="S14">
-        <v>0.008022264302169221</v>
+        <v>0.00650479861017543</v>
       </c>
       <c r="T14">
-        <v>0.007546856914145588</v>
+        <v>0.006145267170172548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H15">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I15">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J15">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>594.6580179858853</v>
+        <v>228.9339586994053</v>
       </c>
       <c r="R15">
-        <v>5351.922161872967</v>
+        <v>2060.405628294648</v>
       </c>
       <c r="S15">
-        <v>0.005789127660162016</v>
+        <v>0.003832875096006965</v>
       </c>
       <c r="T15">
-        <v>0.008169087267011039</v>
+        <v>0.005431538216575544</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H16">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I16">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J16">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>423.255087218513</v>
+        <v>149.6092081312512</v>
       </c>
       <c r="R16">
-        <v>3809.295784966617</v>
+        <v>1346.482873181261</v>
       </c>
       <c r="S16">
-        <v>0.004120482123523877</v>
+        <v>0.002504798376078948</v>
       </c>
       <c r="T16">
-        <v>0.005814447361536242</v>
+        <v>0.003549530773560186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H17">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I17">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J17">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>700.5266031346972</v>
+        <v>331.6293683337084</v>
       </c>
       <c r="R17">
-        <v>4203.159618808183</v>
+        <v>1989.776210002251</v>
       </c>
       <c r="S17">
-        <v>0.006819781811102519</v>
+        <v>0.005552229796802504</v>
       </c>
       <c r="T17">
-        <v>0.006415634735465703</v>
+        <v>0.005245348478301934</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H18">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I18">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J18">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>609.5237063636893</v>
+        <v>115.3731625223232</v>
       </c>
       <c r="R18">
-        <v>5485.713357273204</v>
+        <v>1038.358462700909</v>
       </c>
       <c r="S18">
-        <v>0.005933848432727699</v>
+        <v>0.001931609115098596</v>
       </c>
       <c r="T18">
-        <v>0.0083733039797593</v>
+        <v>0.002737268620903848</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H19">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I19">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J19">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>398.7393294897039</v>
+        <v>166.2822826321971</v>
       </c>
       <c r="R19">
-        <v>3588.653965407335</v>
+        <v>1496.540543689774</v>
       </c>
       <c r="S19">
-        <v>0.003881815786091179</v>
+        <v>0.002783943560094457</v>
       </c>
       <c r="T19">
-        <v>0.00547766326337195</v>
+        <v>0.003945105295811845</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H20">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I20">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J20">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>9906.182483498074</v>
+        <v>5402.43869358294</v>
       </c>
       <c r="R20">
-        <v>39624.7299339923</v>
+        <v>21609.75477433176</v>
       </c>
       <c r="S20">
-        <v>0.0964388830004683</v>
+        <v>0.09044910962085348</v>
       </c>
       <c r="T20">
-        <v>0.06048254570452232</v>
+        <v>0.05696655420455088</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H21">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I21">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J21">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>7148.624485773203</v>
+        <v>3183.322646445468</v>
       </c>
       <c r="R21">
-        <v>42891.74691463921</v>
+        <v>19099.93587867281</v>
       </c>
       <c r="S21">
-        <v>0.06959344445210761</v>
+        <v>0.05329606041599242</v>
       </c>
       <c r="T21">
-        <v>0.06546926748606101</v>
+        <v>0.05035029522076133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H22">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I22">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J22">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>5088.120547783737</v>
+        <v>2080.313392851939</v>
       </c>
       <c r="R22">
-        <v>30528.72328670243</v>
+        <v>12481.88035711163</v>
       </c>
       <c r="S22">
-        <v>0.04953398173488129</v>
+        <v>0.03482917711575247</v>
       </c>
       <c r="T22">
-        <v>0.04659854854694424</v>
+        <v>0.03290410841601541</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H23">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I23">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J23">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>8421.313556093492</v>
+        <v>4611.30050098523</v>
       </c>
       <c r="R23">
-        <v>33685.25422437397</v>
+        <v>18445.20200394092</v>
       </c>
       <c r="S23">
-        <v>0.08198335474833429</v>
+        <v>0.07720365711946535</v>
       </c>
       <c r="T23">
-        <v>0.05141662622276658</v>
+        <v>0.04862431854245249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H24">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I24">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J24">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>7327.330936743761</v>
+        <v>1604.261784209906</v>
       </c>
       <c r="R24">
-        <v>43963.98562046257</v>
+        <v>9625.570705259439</v>
       </c>
       <c r="S24">
-        <v>0.07133319137735231</v>
+        <v>0.02685899058010664</v>
       </c>
       <c r="T24">
-        <v>0.06710591527240935</v>
+        <v>0.02537444783881658</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H25">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I25">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J25">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>4793.406711113318</v>
+        <v>2312.152198882559</v>
       </c>
       <c r="R25">
-        <v>28760.44026667991</v>
+        <v>13872.91319329535</v>
       </c>
       <c r="S25">
-        <v>0.046664877187229</v>
+        <v>0.03871068596210722</v>
       </c>
       <c r="T25">
-        <v>0.04389946999788654</v>
+        <v>0.03657107957280496</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H26">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I26">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J26">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1932.636373390517</v>
+        <v>575.3625377258404</v>
       </c>
       <c r="R26">
-        <v>11595.8182403431</v>
+        <v>3452.175226355042</v>
       </c>
       <c r="S26">
-        <v>0.01881464362344781</v>
+        <v>0.009632877335250787</v>
       </c>
       <c r="T26">
-        <v>0.01769966906704979</v>
+        <v>0.00910045158815753</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H27">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I27">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J27">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1394.653462514933</v>
+        <v>339.0255216472053</v>
       </c>
       <c r="R27">
-        <v>12551.8811626344</v>
+        <v>3051.229694824848</v>
       </c>
       <c r="S27">
-        <v>0.01357726069772353</v>
+        <v>0.00567605822314258</v>
       </c>
       <c r="T27">
-        <v>0.01915898801989083</v>
+        <v>0.008043499040870072</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H28">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I28">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J28">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>992.6615887829</v>
+        <v>221.5544610248096</v>
       </c>
       <c r="R28">
-        <v>8933.9542990461</v>
+        <v>1993.990149223286</v>
       </c>
       <c r="S28">
-        <v>0.009663780672238175</v>
+        <v>0.003709325522939311</v>
       </c>
       <c r="T28">
-        <v>0.01363664307906434</v>
+        <v>0.005256457054014924</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H29">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I29">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J29">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1642.947413632317</v>
+        <v>491.105907710671</v>
       </c>
       <c r="R29">
-        <v>9857.6844817939</v>
+        <v>2946.635446264026</v>
       </c>
       <c r="S29">
-        <v>0.01599445736671501</v>
+        <v>0.008222229737606048</v>
       </c>
       <c r="T29">
-        <v>0.01504660986217578</v>
+        <v>0.00776777291661059</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H30">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I30">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J30">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1429.518011788133</v>
+        <v>170.8547164886816</v>
       </c>
       <c r="R30">
-        <v>12865.6621060932</v>
+        <v>1537.692448398134</v>
       </c>
       <c r="S30">
-        <v>0.01391667481550535</v>
+        <v>0.002860496501196871</v>
       </c>
       <c r="T30">
-        <v>0.01963793816757813</v>
+        <v>0.004053587887801917</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H31">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I31">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J31">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>935.1646991950557</v>
+        <v>246.2454147490138</v>
       </c>
       <c r="R31">
-        <v>8416.482292755501</v>
+        <v>2216.208732741124</v>
       </c>
       <c r="S31">
-        <v>0.009104035703165597</v>
+        <v>0.004122708238914721</v>
       </c>
       <c r="T31">
-        <v>0.01284678219361682</v>
+        <v>0.005842258564278422</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H32">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I32">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J32">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>2060.790828719802</v>
+        <v>350.2068203701008</v>
       </c>
       <c r="R32">
-        <v>12364.74497231881</v>
+        <v>2101.240922220605</v>
       </c>
       <c r="S32">
-        <v>0.02006225566209919</v>
+        <v>0.005863258591578406</v>
       </c>
       <c r="T32">
-        <v>0.01887334637128937</v>
+        <v>0.005539186175063947</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H33">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I33">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J33">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>1487.133898732816</v>
+        <v>206.3551972460133</v>
       </c>
       <c r="R33">
-        <v>13384.20508859534</v>
+        <v>1857.19677521412</v>
       </c>
       <c r="S33">
-        <v>0.01447757825023234</v>
+        <v>0.003454855282061324</v>
       </c>
       <c r="T33">
-        <v>0.02042943377376119</v>
+        <v>0.00489584920646208</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H34">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I34">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J34">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>1058.485665669954</v>
+        <v>134.8539020996905</v>
       </c>
       <c r="R34">
-        <v>9526.370991029587</v>
+        <v>1213.685118897215</v>
       </c>
       <c r="S34">
-        <v>0.01030459265607747</v>
+        <v>0.002257760997510799</v>
       </c>
       <c r="T34">
-        <v>0.01454089831837325</v>
+        <v>0.003199455978789699</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H35">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I35">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J35">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>1751.892393571469</v>
+        <v>298.9222049181775</v>
       </c>
       <c r="R35">
-        <v>10511.35436142882</v>
+        <v>1793.533229509065</v>
       </c>
       <c r="S35">
-        <v>0.0170550609030765</v>
+        <v>0.005004637500628469</v>
       </c>
       <c r="T35">
-        <v>0.01604436097458834</v>
+        <v>0.004728022552937592</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H36">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I36">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J36">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>1524.310340395048</v>
+        <v>103.9944088873705</v>
       </c>
       <c r="R36">
-        <v>13718.79306355543</v>
+        <v>935.9496799863349</v>
       </c>
       <c r="S36">
-        <v>0.0148394991530433</v>
+        <v>0.001741102902395246</v>
       </c>
       <c r="T36">
-        <v>0.02094014343718143</v>
+        <v>0.002467303712349617</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H37">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I37">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J37">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>997.1761175449369</v>
+        <v>149.8825837198678</v>
       </c>
       <c r="R37">
-        <v>8974.585057904433</v>
+        <v>1348.94325347881</v>
       </c>
       <c r="S37">
-        <v>0.009707730610754813</v>
+        <v>0.002509375305126161</v>
       </c>
       <c r="T37">
-        <v>0.01369866121101759</v>
+        <v>0.003556016704985497</v>
       </c>
     </row>
   </sheetData>
